--- a/components/backtest/logic/result/method41.xlsx
+++ b/components/backtest/logic/result/method41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\projects\next-stock-app\components\backtest\logic\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D29382-7999-4A6B-B794-4E3B5DD209A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBADC9D-A415-462B-B751-890606CB9B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -498,15 +498,15 @@
       </c>
       <c r="I3">
         <f>SUM(B7+B15+B23)/3</f>
-        <v>36735</v>
+        <v>34646.75</v>
       </c>
       <c r="J3">
         <f>SUM(C7+C15+C23)/3</f>
-        <v>-1384.5833333333333</v>
+        <v>-2230.5833333333335</v>
       </c>
       <c r="K3">
         <f>SUM(D7+D15+D23)/3</f>
-        <v>84.374999999999986</v>
+        <v>84.266666666666666</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -560,44 +560,44 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>-21798</v>
+        <v>-10709</v>
       </c>
       <c r="B6">
-        <v>64225</v>
+        <v>22816</v>
       </c>
       <c r="C6">
-        <v>-3417</v>
+        <v>-11292</v>
       </c>
       <c r="D6" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="E6">
         <v>45</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
         <f>SUM(A2:A6)/4</f>
-        <v>-26644.5</v>
+        <v>-23872.25</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)/4</f>
-        <v>49765.5</v>
+        <v>39413.25</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)/4</f>
-        <v>-1318.25</v>
+        <v>-3287</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)/4*100</f>
-        <v>84.025000000000006</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -705,22 +705,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>-24324</v>
+        <v>-1795</v>
       </c>
       <c r="B14">
-        <v>74753</v>
+        <v>50989</v>
       </c>
       <c r="C14">
-        <v>-2944</v>
+        <v>-8396</v>
       </c>
       <c r="D14" s="1">
-        <v>0.91700000000000004</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -730,19 +730,19 @@
     <row r="15" spans="1:12">
       <c r="A15">
         <f>SUM(A10:A14)/4</f>
-        <v>-23085.25</v>
+        <v>-17453</v>
       </c>
       <c r="B15">
         <f>SUM(B10:B14)/4</f>
-        <v>49516.75</v>
+        <v>43575.75</v>
       </c>
       <c r="C15">
         <f>SUM(C10:C14)/4</f>
-        <v>-2466.5</v>
+        <v>-3829.5</v>
       </c>
       <c r="D15">
         <f>SUM(D10:D14)/4*100</f>
-        <v>88.124999999999986</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -850,44 +850,44 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>-38335</v>
+        <v>-21442</v>
       </c>
       <c r="B22">
-        <v>31222</v>
+        <v>71336</v>
       </c>
       <c r="C22">
-        <v>-1220</v>
+        <v>1955</v>
       </c>
       <c r="D22" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
         <f>SUM(A18:A22)/4</f>
-        <v>-32034.5</v>
+        <v>-27811.25</v>
       </c>
       <c r="B23">
         <f>SUM(B18:B22)/4</f>
-        <v>10922.75</v>
+        <v>20951.25</v>
       </c>
       <c r="C23">
         <f>SUM(C18:C22)/4</f>
-        <v>-369</v>
+        <v>424.75</v>
       </c>
       <c r="D23">
         <f>SUM(D18:D22)/4*100</f>
-        <v>80.974999999999994</v>
+        <v>81.849999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:12">
